--- a/datacollectedfromDavid/David Cluster and PValue Analysis of Sulfide Score/AllClusterScores(Log).xlsx
+++ b/datacollectedfromDavid/David Cluster and PValue Analysis of Sulfide Score/AllClusterScores(Log).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Term</t>
   </si>
@@ -37,6 +37,9 @@
     <t>GO:0043235~receptor complex</t>
   </si>
   <si>
+    <t>GO:0008305~integrin complex</t>
+  </si>
+  <si>
     <t>GO:0009986~cell surface</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>GO:0005886~plasma membrane</t>
   </si>
   <si>
+    <t>GO:0001527~microfibril</t>
+  </si>
+  <si>
     <t>GO:0030666~endocytic vesicle membrane</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>GO:0005925~focal adhesion</t>
   </si>
   <si>
+    <t>GO:0055037~recycling endosome</t>
+  </si>
+  <si>
     <t>GO:0016021~integral component of membrane</t>
   </si>
   <si>
@@ -82,9 +91,27 @@
     <t>GO:0005605~basal lamina</t>
   </si>
   <si>
+    <t>GO:0005577~fibrinogen complex</t>
+  </si>
+  <si>
+    <t>GO:0005608~laminin-3 complex</t>
+  </si>
+  <si>
     <t>GO:0043202~lysosomal lumen</t>
   </si>
   <si>
+    <t>GO:0005606~laminin-1 complex</t>
+  </si>
+  <si>
+    <t>GO:0043259~laminin-10 complex</t>
+  </si>
+  <si>
+    <t>GO:0005610~laminin-5 complex</t>
+  </si>
+  <si>
+    <t>GO:0043260~laminin-11 complex</t>
+  </si>
+  <si>
     <t>GO:0005796~Golgi lumen</t>
   </si>
   <si>
@@ -103,6 +130,15 @@
     <t>GO:0031093~platelet alpha granule lumen</t>
   </si>
   <si>
+    <t>GO:0043083~synaptic cleft</t>
+  </si>
+  <si>
+    <t>GO:0031091~platelet alpha granule</t>
+  </si>
+  <si>
+    <t>GO:0014069~postsynaptic density</t>
+  </si>
+  <si>
     <t>GO:0005788~endoplasmic reticulum lumen</t>
   </si>
   <si>
@@ -112,12 +148,42 @@
     <t>GO:0045211~postsynaptic membrane</t>
   </si>
   <si>
+    <t>GO:1902711~GABA-A receptor complex</t>
+  </si>
+  <si>
+    <t>GO:0071556~integral component of lumenal side of endoplasmic reticulum membrane</t>
+  </si>
+  <si>
+    <t>GO:0005892~acetylcholine-gated channel complex</t>
+  </si>
+  <si>
+    <t>GO:0042613~MHC class II protein complex</t>
+  </si>
+  <si>
+    <t>GO:0030054~cell junction</t>
+  </si>
+  <si>
     <t>GO:0045202~synapse</t>
   </si>
   <si>
+    <t>GO:0042612~MHC class I protein complex</t>
+  </si>
+  <si>
+    <t>GO:0034707~chloride channel complex</t>
+  </si>
+  <si>
+    <t>GO:0012507~ER to Golgi transport vesicle membrane</t>
+  </si>
+  <si>
+    <t>GO:0001518~voltage-gated sodium channel complex</t>
+  </si>
+  <si>
     <t>GO:0030425~dendrite</t>
   </si>
   <si>
+    <t>GO:0030658~transport vesicle membrane</t>
+  </si>
+  <si>
     <t>GO:0030669~clathrin-coated endocytic vesicle membrane</t>
   </si>
   <si>
@@ -130,28 +196,118 @@
     <t>GO:0030424~axon</t>
   </si>
   <si>
+    <t>GO:0033268~node of Ranvier</t>
+  </si>
+  <si>
     <t>GO:0043005~neuron projection</t>
   </si>
   <si>
+    <t>GO:0031513~nonmotile primary cilium</t>
+  </si>
+  <si>
+    <t>GO:0060077~inhibitory synapse</t>
+  </si>
+  <si>
     <t>GO:0072562~blood microparticle</t>
   </si>
   <si>
+    <t>GO:0043679~axon terminus</t>
+  </si>
+  <si>
+    <t>GO:0043204~perikaryon</t>
+  </si>
+  <si>
     <t>GO:0031226~intrinsic component of plasma membrane</t>
   </si>
   <si>
     <t>GO:0030173~integral component of Golgi membrane</t>
   </si>
   <si>
+    <t>GO:0030670~phagocytic vesicle membrane</t>
+  </si>
+  <si>
+    <t>GO:0042101~T cell receptor complex</t>
+  </si>
+  <si>
+    <t>GO:0042571~immunoglobulin complex, circulating</t>
+  </si>
+  <si>
     <t>GO:1903561~extracellular vesicle</t>
   </si>
   <si>
+    <t>GO:0005765~lysosomal membrane</t>
+  </si>
+  <si>
+    <t>GO:0099055~integral component of postsynaptic membrane</t>
+  </si>
+  <si>
+    <t>GO:0032002~interleukin-28 receptor complex</t>
+  </si>
+  <si>
+    <t>GO:1990712~HFE-transferrin receptor complex</t>
+  </si>
+  <si>
+    <t>GO:0032279~asymmetric synapse</t>
+  </si>
+  <si>
+    <t>GO:0032588~trans-Golgi network membrane</t>
+  </si>
+  <si>
+    <t>GO:0032580~Golgi cisterna membrane</t>
+  </si>
+  <si>
+    <t>GO:0032590~dendrite membrane</t>
+  </si>
+  <si>
+    <t>GO:0044291~cell-cell contact zone</t>
+  </si>
+  <si>
+    <t>GO:0001750~photoreceptor outer segment</t>
+  </si>
+  <si>
+    <t>GO:0043194~axon initial segment</t>
+  </si>
+  <si>
+    <t>GO:0005890~sodium:potassium-exchanging ATPase complex</t>
+  </si>
+  <si>
     <t>GO:0005911~cell-cell junction</t>
   </si>
   <si>
     <t>GO:0005794~Golgi apparatus</t>
   </si>
   <si>
+    <t>GO:0031258~lamellipodium membrane</t>
+  </si>
+  <si>
+    <t>GO:0032281~AMPA glutamate receptor complex</t>
+  </si>
+  <si>
+    <t>GO:0060170~ciliary membrane</t>
+  </si>
+  <si>
+    <t>GO:0005891~voltage-gated calcium channel complex</t>
+  </si>
+  <si>
+    <t>GO:0071438~invadopodium membrane</t>
+  </si>
+  <si>
+    <t>GO:0045178~basal part of cell</t>
+  </si>
+  <si>
     <t>GO:0005764~lysosome</t>
+  </si>
+  <si>
+    <t>GO:0009925~basal plasma membrane</t>
+  </si>
+  <si>
+    <t>GO:0005771~multivesicular body</t>
+  </si>
+  <si>
+    <t>GO:0098794~postsynapse</t>
+  </si>
+  <si>
+    <t>GO:0060076~excitatory synapse</t>
   </si>
   <si>
     <t>GO:0005581~collagen trimer</t>
@@ -611,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,16 +838,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>8.796056433323583</v>
+        <v>10.05262358393458</v>
       </c>
       <c r="D4">
-        <v>4.895344256224333</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>34.23636395517233</v>
+        <v>7.52533917841951</v>
       </c>
       <c r="F4">
-        <v>71.54128186254938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -702,16 +858,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>7.955756897068493</v>
+        <v>8.796056433323583</v>
       </c>
       <c r="D5">
-        <v>6.977691678781436</v>
+        <v>4.895344256224333</v>
       </c>
       <c r="E5">
-        <v>1.697054589171302</v>
+        <v>34.23636395517233</v>
       </c>
       <c r="F5">
-        <v>20.56191869959342</v>
+        <v>71.54128186254938</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -722,16 +878,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>7.01155557954972</v>
+        <v>7.955756897068493</v>
       </c>
       <c r="D6">
-        <v>13.15613635626901</v>
+        <v>6.977691678781436</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.697054589171302</v>
       </c>
       <c r="F6">
-        <v>30.25830258311544</v>
+        <v>20.56191869959342</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -742,16 +898,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>4.053910351989573</v>
+        <v>7.01155557954972</v>
       </c>
       <c r="D7">
-        <v>15.1289831353148</v>
+        <v>13.15613635626901</v>
       </c>
       <c r="E7">
-        <v>1.49190872647553</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>81.98525917925372</v>
+        <v>30.25830258311544</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -762,16 +918,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.664970707668261</v>
+        <v>4.053910351989573</v>
       </c>
       <c r="D8">
-        <v>2.18931099038821</v>
+        <v>15.1289831353148</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.49190872647553</v>
       </c>
       <c r="F8">
-        <v>51.65321255946723</v>
+        <v>81.98525917925372</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -782,16 +938,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.103805762507309</v>
+        <v>3.664970707668261</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2.18931099038821</v>
       </c>
       <c r="E9">
-        <v>5.018456923547418</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>5.977332174737313</v>
+        <v>51.65321255946723</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -802,16 +958,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.055112525451376</v>
+        <v>3.484987900246415</v>
       </c>
       <c r="D10">
-        <v>19.481652720644</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>16.62234159930177</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>161.161909721346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -822,16 +978,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>2.000637929494108</v>
+        <v>3.103805762507309</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>5.018456923547418</v>
       </c>
       <c r="F11">
-        <v>1.822522078972987</v>
+        <v>5.977332174737313</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -842,16 +998,16 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>1.860351268270715</v>
+        <v>3.055112525451376</v>
       </c>
       <c r="D12">
-        <v>2.580803947586467</v>
+        <v>19.481652720644</v>
       </c>
       <c r="E12">
-        <v>141.947915904244</v>
+        <v>16.62234159930177</v>
       </c>
       <c r="F12">
-        <v>67.08853095015726</v>
+        <v>161.161909721346</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -862,7 +1018,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>1.662668627843094</v>
+        <v>2.000637929494108</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -871,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.03356470879583</v>
+        <v>1.822522078972987</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -882,16 +1038,16 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>1.65492684311921</v>
+        <v>1.860351268270715</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>2.580803947586467</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>141.947915904244</v>
       </c>
       <c r="F14">
-        <v>1.3971520610517</v>
+        <v>67.08853095015726</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -902,16 +1058,16 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>1.300498718486725</v>
+        <v>1.662668627843094</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>277.2100997421367</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>36.25045048514182</v>
+        <v>2.03356470879583</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -922,16 +1078,16 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>1.137834435312969</v>
+        <v>1.65492684311921</v>
       </c>
       <c r="D16">
-        <v>2.232379984488782</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.866512375423654</v>
+        <v>1.3971520610517</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -942,16 +1098,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.435942037946291</v>
       </c>
       <c r="D17">
-        <v>13.6358495272217</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.51659212248236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -962,16 +1118,16 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>1.300498718486725</v>
       </c>
       <c r="D18">
-        <v>4.107060333990707</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>277.2100997421367</v>
       </c>
       <c r="F18">
-        <v>2.006149080254744</v>
+        <v>36.25045048514182</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -982,16 +1138,16 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1.137834435312969</v>
       </c>
       <c r="D19">
-        <v>1.895659920164934</v>
+        <v>2.232379984488782</v>
       </c>
       <c r="E19">
-        <v>9.068784639222095</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>14.50391562963095</v>
+        <v>1.866512375423654</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1005,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.754784769075059</v>
+        <v>13.6358495272217</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.49967888733375</v>
+        <v>16.51659212248236</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1025,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.705235688556884</v>
+        <v>4.107060333990707</v>
       </c>
       <c r="E21">
-        <v>1.129071164429382</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>2.640774133780565</v>
+        <v>2.006149080254744</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1045,13 +1201,13 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.590757485391972</v>
+        <v>2.946441879046478</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1.544521118601394</v>
       </c>
       <c r="F22">
-        <v>6.238749523154288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1065,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.570265814199256</v>
+        <v>1.943809468525563</v>
       </c>
       <c r="E23">
-        <v>16.12050116838204</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>12.52168898698642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1085,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.405870136335157</v>
+        <v>1.895659920164934</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>9.068784639222095</v>
       </c>
       <c r="F24">
-        <v>1.219784599323998</v>
+        <v>14.50391562963095</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1105,13 +1261,13 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.404749304148038</v>
+        <v>1.768946188341887</v>
       </c>
       <c r="E25">
-        <v>1.187963669176043</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>17.2420564073062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1125,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1.01220850112934</v>
+        <v>1.768946188341887</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>27.96899092025197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1145,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1.768946188341887</v>
       </c>
       <c r="E27">
-        <v>28.6709619373556</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>26.91213379923835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1165,13 +1321,13 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1.768946188341887</v>
       </c>
       <c r="E28">
-        <v>22.70778978463157</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>2.147967722135521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1185,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1.754784769075059</v>
       </c>
       <c r="E29">
-        <v>10.44017692505556</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.148497473234133</v>
+        <v>21.49967888733375</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1205,13 +1361,13 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1.705235688556884</v>
       </c>
       <c r="E30">
-        <v>8.029898003333418</v>
+        <v>1.129071164429382</v>
       </c>
       <c r="F30">
-        <v>2.809369863632001</v>
+        <v>2.640774133780565</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1225,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1.590757485391972</v>
       </c>
       <c r="E31">
-        <v>5.03547266499239</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>3.265849374605396</v>
+        <v>6.238749523154288</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1245,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1.570265814199256</v>
       </c>
       <c r="E32">
-        <v>4.92096651157541</v>
+        <v>16.12050116838204</v>
       </c>
       <c r="F32">
-        <v>5.808370890276742</v>
+        <v>12.52168898698642</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1265,13 +1421,13 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1.405870136335157</v>
       </c>
       <c r="E33">
-        <v>4.846203754605335</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>4.235608023399544</v>
+        <v>1.219784599323998</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1285,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1.404749304148038</v>
       </c>
       <c r="E34">
-        <v>3.52368067136188</v>
+        <v>1.187963669176043</v>
       </c>
       <c r="F34">
-        <v>2.492171944912918</v>
+        <v>17.2420564073062</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1305,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1.34910057627327</v>
       </c>
       <c r="E35">
-        <v>3.013772258147299</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.370675654788509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1325,13 +1481,13 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1.113373347213864</v>
       </c>
       <c r="E36">
-        <v>2.738616632169909</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>11.60787719361301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1345,13 +1501,13 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1.054188261502548</v>
       </c>
       <c r="E37">
-        <v>2.298888226501113</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>2.284267203569479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1365,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1.01220850112934</v>
       </c>
       <c r="E38">
-        <v>2.296553152069388</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>1.692586190669131</v>
+        <v>27.96899092025197</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1388,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1.823501433491491</v>
+        <v>28.6709619373556</v>
       </c>
       <c r="F39">
-        <v>1.56911595980239</v>
+        <v>26.91213379923835</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1408,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1.29254229832868</v>
+        <v>22.70778978463157</v>
       </c>
       <c r="F40">
-        <v>1.577004255397047</v>
+        <v>2.147967722135521</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1428,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1.256715181663235</v>
+        <v>17.58247805558091</v>
       </c>
       <c r="F41">
-        <v>2.177535250100241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1448,10 +1604,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1.084364450008653</v>
+        <v>16.88680867789998</v>
       </c>
       <c r="F42">
-        <v>12.94042533103731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1468,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>16.56736343863194</v>
       </c>
       <c r="F43">
-        <v>18.19325835715917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1488,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>14.54101861059524</v>
       </c>
       <c r="F44">
-        <v>7.684011545429619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1508,10 +1664,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>13.59814530211433</v>
       </c>
       <c r="F45">
-        <v>7.658808253107422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1528,10 +1684,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>10.44017692505556</v>
       </c>
       <c r="F46">
-        <v>5.385628670939258</v>
+        <v>1.148497473234133</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1548,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>10.04114447280291</v>
       </c>
       <c r="F47">
-        <v>4.58088856634865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1568,10 +1724,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>9.644309258619566</v>
       </c>
       <c r="F48">
-        <v>4.250369719019671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1588,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>9.09513984579484</v>
       </c>
       <c r="F49">
-        <v>4.014216847700761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1608,10 +1764,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>8.178111523931662</v>
       </c>
       <c r="F50">
-        <v>3.873595619410096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1628,10 +1784,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>8.029898003333418</v>
       </c>
       <c r="F51">
-        <v>3.274312458040919</v>
+        <v>2.809369863632001</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1648,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>7.152676911708264</v>
       </c>
       <c r="F52">
-        <v>3.151397733269984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1668,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>5.03547266499239</v>
       </c>
       <c r="F53">
-        <v>3.1016173920653</v>
+        <v>3.265849374605396</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1688,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>4.92096651157541</v>
       </c>
       <c r="F54">
-        <v>3.1016173920653</v>
+        <v>5.808370890276742</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1708,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>4.846203754605335</v>
       </c>
       <c r="F55">
-        <v>2.855487616771668</v>
+        <v>4.235608023399544</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1728,10 +1884,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>3.52368067136188</v>
       </c>
       <c r="F56">
-        <v>2.546219336067751</v>
+        <v>2.492171944912918</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1748,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>3.197885477527843</v>
       </c>
       <c r="F57">
-        <v>2.540311650070884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1768,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>3.013772258147299</v>
       </c>
       <c r="F58">
-        <v>2.540311650070884</v>
+        <v>1.370675654788509</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1788,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>2.832130537428373</v>
       </c>
       <c r="F59">
-        <v>2.383907188298449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1808,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>2.827394070069174</v>
       </c>
       <c r="F60">
-        <v>2.332159904797457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1828,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>2.738616632169909</v>
       </c>
       <c r="F61">
-        <v>2.006149080254744</v>
+        <v>11.60787719361301</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1848,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>2.436576422025255</v>
       </c>
       <c r="F62">
-        <v>1.995960859297384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1868,10 +2024,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>2.429502681356142</v>
       </c>
       <c r="F63">
-        <v>1.995960859297384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1888,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>2.298888226501113</v>
       </c>
       <c r="F64">
-        <v>1.995960859297384</v>
+        <v>2.284267203569479</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1908,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>2.296553152069388</v>
       </c>
       <c r="F65">
-        <v>1.995960859297384</v>
+        <v>1.692586190669131</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1928,10 +2084,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>2.238227719796182</v>
       </c>
       <c r="F66">
-        <v>1.712298987372709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1948,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1.965906468829914</v>
       </c>
       <c r="F67">
-        <v>1.712298987372709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1968,10 +2124,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1.861818996734499</v>
       </c>
       <c r="F68">
-        <v>1.712298987372709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1988,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1.823501433491491</v>
       </c>
       <c r="F69">
-        <v>1.579881661353753</v>
+        <v>1.56911595980239</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2008,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1.792301199429702</v>
       </c>
       <c r="F70">
-        <v>1.46529989152663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2028,10 +2184,10 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1.75412881206504</v>
       </c>
       <c r="F71">
-        <v>1.370662279821842</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2048,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1.75412881206504</v>
       </c>
       <c r="F72">
-        <v>1.348820558395026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2068,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1.694805474874955</v>
       </c>
       <c r="F73">
-        <v>1.348820558395026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2088,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1.694805474874955</v>
       </c>
       <c r="F74">
-        <v>1.335837538553694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2108,10 +2264,10 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1.540842254519309</v>
       </c>
       <c r="F75">
-        <v>1.335837538553694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2128,9 +2284,1049 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1.45454617815373</v>
       </c>
       <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1.415306103126862</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1.400064130526147</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1.308079598657665</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1.302568894998351</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1.302568894998351</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1.29254229832868</v>
+      </c>
+      <c r="F82">
+        <v>1.577004255397047</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1.256715181663235</v>
+      </c>
+      <c r="F83">
+        <v>2.177535250100241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1.242264110205082</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1.188393205492773</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1.134979853673343</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1.133991499648507</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1.124323603550689</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1.114447481035633</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1.084364450008653</v>
+      </c>
+      <c r="F90">
+        <v>12.94042533103731</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1.08251459742888</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1.046716167943358</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>96</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1.046716167943358</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1.046716167943358</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>18.19325835715917</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>99</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>7.684011545429619</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>100</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>7.658808253107422</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>5.385628670939258</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>102</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>4.58088856634865</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>4.250369719019671</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>4.014216847700761</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>3.873595619410096</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>106</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>3.274312458040919</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>107</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>3.151397733269984</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>3.1016173920653</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>3.1016173920653</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>2.855487616771668</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>2.546219336067751</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>112</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>2.540311650070884</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>113</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>2.540311650070884</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>2.383907188298449</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>2.332159904797457</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>2.006149080254744</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>1.995960859297384</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>118</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>1.995960859297384</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
+        <v>1.995960859297384</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>1.995960859297384</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>1.712298987372709</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>1.712298987372709</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>123</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120">
+        <v>1.712298987372709</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>124</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1.579881661353753</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>125</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>1.46529989152663</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>126</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1.370662279821842</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>1.348820558395026</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>128</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>1.348820558395026</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>129</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>1.335837538553694</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>130</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1.335837538553694</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>131</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
         <v>1.189320279743086</v>
       </c>
     </row>
